--- a/assets/images/upload/esp_20161010213235_57fc4f43cb132.xlsx
+++ b/assets/images/upload/esp_20161010213235_57fc4f43cb132.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FINAL PROYECTO GRANADA LISTO\INDICADORES\SISTEMA DE INDICADORES\AVANZAR\AVANZAR-FINAL\ENCABEZADOS CON DATOS A PROGRAMAR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -530,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,296 +533,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D38"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
